--- a/util/uniprot-fa_stats.xlsx
+++ b/util/uniprot-fa_stats.xlsx
@@ -13001,7 +13001,7 @@
   <dimension ref="A1:F3682"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>306</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
